--- a/ui/PATAC MOBILE QMS Issue_model_20170527_Update.xlsx
+++ b/ui/PATAC MOBILE QMS Issue_model_20170527_Update.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\SGM\SGM-QMS\ui\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="9960" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Log" sheetId="1" r:id="rId1"/>
@@ -572,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -772,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,10 +946,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +958,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -968,26 +994,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1758,33 +1772,33 @@
   <dimension ref="A1:Q262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E242" sqref="E242"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="31" customWidth="1"/>
-    <col min="17" max="17" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1837,11 +1851,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="58" t="s">
@@ -1868,9 +1882,9 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="67"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="44" t="s">
@@ -1891,9 +1905,9 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="67"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
       <c r="E4" s="44" t="s">
@@ -1914,9 +1928,9 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="67"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="44" t="s">
@@ -1937,9 +1951,9 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="67"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
       <c r="E6" s="44" t="s">
@@ -1960,9 +1974,9 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="67"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
       <c r="E7" s="44" t="s">
@@ -1983,9 +1997,9 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="67"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="44" t="s">
@@ -2006,9 +2020,9 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="67"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
       <c r="E9" s="44" t="s">
@@ -2029,9 +2043,9 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="E10" s="44" t="s">
@@ -2052,9 +2066,9 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="67"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="44" t="s">
@@ -2075,11 +2089,11 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="44" t="s">
         <v>36</v>
       </c>
@@ -2098,17 +2112,17 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="68" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="46" t="s">
@@ -2129,11 +2143,11 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="62"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="46" t="s">
         <v>27</v>
       </c>
@@ -2152,11 +2166,11 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="57"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="59"/>
-      <c r="D15" s="62"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="48" t="s">
         <v>126</v>
       </c>
@@ -2175,11 +2189,11 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="59"/>
-      <c r="D16" s="62"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="46" t="s">
         <v>64</v>
       </c>
@@ -2198,11 +2212,11 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="57"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="62"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="46" t="s">
         <v>23</v>
       </c>
@@ -2221,11 +2235,11 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="59"/>
-      <c r="D18" s="62"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2244,11 +2258,11 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="57"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="59"/>
-      <c r="D19" s="62"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="46" t="s">
         <v>25</v>
       </c>
@@ -2267,11 +2281,11 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="59"/>
-      <c r="D20" s="62"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="46" t="s">
         <v>28</v>
       </c>
@@ -2290,11 +2304,11 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="57"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="59"/>
-      <c r="D21" s="62"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="47" t="s">
         <v>29</v>
       </c>
@@ -2313,11 +2327,11 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="57"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="59"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="17" t="s">
         <v>30</v>
       </c>
@@ -2336,11 +2350,11 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="44" t="s">
         <v>139</v>
       </c>
@@ -2359,11 +2373,11 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="44" t="s">
         <v>31</v>
       </c>
@@ -2382,11 +2396,11 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="55"/>
-      <c r="B25" s="57"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="17" t="s">
         <v>34</v>
       </c>
@@ -2405,11 +2419,11 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="62"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="16" t="s">
         <v>73</v>
       </c>
@@ -2428,11 +2442,11 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="57"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="59"/>
-      <c r="D27" s="62"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="11" t="s">
         <v>35</v>
       </c>
@@ -2451,11 +2465,11 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="16" t="s">
         <v>36</v>
       </c>
@@ -2474,11 +2488,11 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="57"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
@@ -2497,11 +2511,11 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="18"/>
     </row>
-    <row r="30" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="57"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="59"/>
-      <c r="D30" s="62"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="49" t="s">
         <v>37</v>
       </c>
@@ -2520,11 +2534,11 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="57"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="62"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="49" t="s">
         <v>38</v>
       </c>
@@ -2543,11 +2557,11 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="57"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="62"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="49" t="s">
         <v>39</v>
       </c>
@@ -2566,11 +2580,11 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="59"/>
-      <c r="D33" s="62"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="49" t="s">
         <v>69</v>
       </c>
@@ -2589,11 +2603,11 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="18"/>
     </row>
-    <row r="34" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
-      <c r="B34" s="57"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="59"/>
-      <c r="D34" s="62"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="49" t="s">
         <v>40</v>
       </c>
@@ -2612,11 +2626,11 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
-      <c r="B35" s="57"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="59"/>
-      <c r="D35" s="62"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="16" t="s">
         <v>41</v>
       </c>
@@ -2635,11 +2649,11 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="18"/>
     </row>
-    <row r="36" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
-      <c r="B36" s="57"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="59"/>
-      <c r="D36" s="62"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="49" t="s">
         <v>42</v>
       </c>
@@ -2658,11 +2672,11 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
-      <c r="B37" s="57"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="59"/>
-      <c r="D37" s="62"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="49" t="s">
         <v>43</v>
       </c>
@@ -2681,11 +2695,11 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="18"/>
     </row>
-    <row r="38" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="62"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="16" t="s">
         <v>44</v>
       </c>
@@ -2704,11 +2718,11 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="24"/>
     </row>
-    <row r="39" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="59"/>
-      <c r="D39" s="62"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="49" t="s">
         <v>45</v>
       </c>
@@ -2727,11 +2741,11 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="24"/>
     </row>
-    <row r="40" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
-      <c r="B40" s="57"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="59"/>
-      <c r="D40" s="62"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="49" t="s">
         <v>46</v>
       </c>
@@ -2750,11 +2764,11 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="24"/>
     </row>
-    <row r="41" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="59"/>
-      <c r="D41" s="62"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="49" t="s">
         <v>47</v>
       </c>
@@ -2773,11 +2787,11 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="24"/>
     </row>
-    <row r="42" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="59"/>
-      <c r="D42" s="62"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="49" t="s">
         <v>48</v>
       </c>
@@ -2796,11 +2810,11 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="24"/>
     </row>
-    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A43" s="65"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="63"/>
+    <row r="43" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="49" t="s">
         <v>49</v>
       </c>
@@ -2819,11 +2833,11 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="24"/>
     </row>
-    <row r="44" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="58" t="s">
@@ -2850,9 +2864,9 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
       <c r="E45" s="46" t="s">
@@ -2873,9 +2887,9 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="18"/>
     </row>
-    <row r="46" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
-      <c r="B46" s="57"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
       <c r="E46" s="46" t="s">
@@ -2896,9 +2910,9 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="18"/>
     </row>
-    <row r="47" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
-      <c r="B47" s="57"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
       <c r="E47" s="46" t="s">
@@ -2919,9 +2933,9 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="18"/>
     </row>
-    <row r="48" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
       <c r="E48" s="46" t="s">
@@ -2942,9 +2956,9 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="18"/>
     </row>
-    <row r="49" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
-      <c r="B49" s="57"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
       <c r="E49" s="12" t="s">
@@ -2965,9 +2979,9 @@
       <c r="P49" s="28"/>
       <c r="Q49" s="18"/>
     </row>
-    <row r="50" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A50" s="55"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
       <c r="E50" s="46" t="s">
@@ -2988,9 +3002,9 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="18"/>
     </row>
-    <row r="51" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A51" s="55"/>
-      <c r="B51" s="57"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
       <c r="E51" s="46" t="s">
@@ -3011,9 +3025,9 @@
       <c r="P51" s="28"/>
       <c r="Q51" s="18"/>
     </row>
-    <row r="52" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
-      <c r="B52" s="57"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="47" t="s">
@@ -3034,9 +3048,9 @@
       <c r="P52" s="28"/>
       <c r="Q52" s="17"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="55"/>
-      <c r="B53" s="57"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
       <c r="E53" s="17" t="s">
@@ -3057,9 +3071,9 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
-      <c r="B54" s="57"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
       <c r="E54" s="44" t="s">
@@ -3080,9 +3094,9 @@
       <c r="P54" s="29"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
       <c r="E55" s="44" t="s">
@@ -3103,9 +3117,9 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="17"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="55"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="17" t="s">
@@ -3126,9 +3140,9 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="55"/>
-      <c r="B57" s="57"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
       <c r="E57" s="17" t="s">
@@ -3149,9 +3163,9 @@
       <c r="P57" s="29"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
-      <c r="B58" s="57"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
       <c r="E58" s="16" t="s">
@@ -3172,9 +3186,9 @@
       <c r="P58" s="28"/>
       <c r="Q58" s="18"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="55"/>
-      <c r="B59" s="57"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
       <c r="E59" s="11" t="s">
@@ -3195,9 +3209,9 @@
       <c r="P59" s="30"/>
       <c r="Q59" s="20"/>
     </row>
-    <row r="60" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
       <c r="E60" s="16" t="s">
@@ -3218,9 +3232,9 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="18"/>
     </row>
-    <row r="61" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A61" s="55"/>
-      <c r="B61" s="57"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
       <c r="E61" s="49" t="s">
@@ -3241,9 +3255,9 @@
       <c r="P61" s="28"/>
       <c r="Q61" s="18"/>
     </row>
-    <row r="62" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A62" s="55"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
       <c r="E62" s="49" t="s">
@@ -3264,9 +3278,9 @@
       <c r="P62" s="19"/>
       <c r="Q62" s="18"/>
     </row>
-    <row r="63" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A63" s="55"/>
-      <c r="B63" s="57"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="59"/>
       <c r="D63" s="59"/>
       <c r="E63" s="49" t="s">
@@ -3287,9 +3301,9 @@
       <c r="P63" s="28"/>
       <c r="Q63" s="18"/>
     </row>
-    <row r="64" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A64" s="55"/>
-      <c r="B64" s="57"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="59"/>
       <c r="D64" s="59"/>
       <c r="E64" s="49" t="s">
@@ -3310,9 +3324,9 @@
       <c r="P64" s="28"/>
       <c r="Q64" s="18"/>
     </row>
-    <row r="65" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
       <c r="E65" s="49" t="s">
@@ -3333,9 +3347,9 @@
       <c r="P65" s="28"/>
       <c r="Q65" s="18"/>
     </row>
-    <row r="66" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A66" s="55"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
       <c r="E66" s="49" t="s">
@@ -3356,9 +3370,9 @@
       <c r="P66" s="28"/>
       <c r="Q66" s="18"/>
     </row>
-    <row r="67" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
       <c r="E67" s="49" t="s">
@@ -3379,9 +3393,9 @@
       <c r="P67" s="28"/>
       <c r="Q67" s="18"/>
     </row>
-    <row r="68" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
-      <c r="B68" s="57"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
       <c r="E68" s="49" t="s">
@@ -3402,9 +3416,9 @@
       <c r="P68" s="28"/>
       <c r="Q68" s="18"/>
     </row>
-    <row r="69" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
-      <c r="B69" s="57"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="49" t="s">
@@ -3425,9 +3439,9 @@
       <c r="P69" s="28"/>
       <c r="Q69" s="18"/>
     </row>
-    <row r="70" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A70" s="55"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
       <c r="E70" s="49" t="s">
@@ -3448,9 +3462,9 @@
       <c r="P70" s="28"/>
       <c r="Q70" s="18"/>
     </row>
-    <row r="71" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A71" s="55"/>
-      <c r="B71" s="57"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="49" t="s">
@@ -3471,11 +3485,11 @@
       <c r="P71" s="28"/>
       <c r="Q71" s="18"/>
     </row>
-    <row r="72" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="55"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="49" t="s">
         <v>49</v>
       </c>
@@ -3494,11 +3508,11 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="18"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="58" t="s">
@@ -3525,9 +3539,9 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="18"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
-      <c r="B74" s="57"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
       <c r="E74" s="46" t="s">
@@ -3548,9 +3562,9 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="18"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="55"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
       <c r="E75" s="46" t="s">
@@ -3571,9 +3585,9 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="18"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
       <c r="E76" s="46" t="s">
@@ -3594,9 +3608,9 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="18"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
-      <c r="B77" s="57"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
       <c r="E77" s="46" t="s">
@@ -3617,9 +3631,9 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="18"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
-      <c r="B78" s="57"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
       <c r="E78" s="12" t="s">
@@ -3640,9 +3654,9 @@
       <c r="P78" s="28"/>
       <c r="Q78" s="18"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="55"/>
-      <c r="B79" s="57"/>
+      <c r="B79" s="67"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
       <c r="E79" s="46" t="s">
@@ -3663,9 +3677,9 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="18"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
-      <c r="B80" s="57"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
       <c r="E80" s="46" t="s">
@@ -3686,9 +3700,9 @@
       <c r="P80" s="28"/>
       <c r="Q80" s="18"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
-      <c r="B81" s="57"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
       <c r="E81" s="47" t="s">
@@ -3709,9 +3723,9 @@
       <c r="P81" s="28"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
-      <c r="B82" s="57"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
       <c r="E82" s="44" t="s">
@@ -3732,9 +3746,9 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:17" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A83" s="55"/>
-      <c r="B83" s="57"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
       <c r="E83" s="44" t="s">
@@ -3755,9 +3769,9 @@
       <c r="P83" s="29"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
-      <c r="B84" s="57"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
       <c r="E84" s="44" t="s">
@@ -3778,9 +3792,9 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="17"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
-      <c r="B85" s="57"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
       <c r="E85" s="17" t="s">
@@ -3801,9 +3815,9 @@
       <c r="P85" s="29"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
-      <c r="B86" s="57"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
       <c r="E86" s="16" t="s">
@@ -3824,9 +3838,9 @@
       <c r="P86" s="28"/>
       <c r="Q86" s="18"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
-      <c r="B87" s="57"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
       <c r="E87" s="11" t="s">
@@ -3847,9 +3861,9 @@
       <c r="P87" s="30"/>
       <c r="Q87" s="20"/>
     </row>
-    <row r="88" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
-      <c r="B88" s="57"/>
+      <c r="B88" s="67"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
       <c r="E88" s="16" t="s">
@@ -3870,9 +3884,9 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="18"/>
     </row>
-    <row r="89" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
-      <c r="B89" s="57"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
       <c r="E89" s="16" t="s">
@@ -3893,9 +3907,9 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="18"/>
     </row>
-    <row r="90" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A90" s="55"/>
-      <c r="B90" s="57"/>
+      <c r="B90" s="67"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
       <c r="E90" s="49" t="s">
@@ -3916,9 +3930,9 @@
       <c r="P90" s="28"/>
       <c r="Q90" s="18"/>
     </row>
-    <row r="91" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
-      <c r="B91" s="57"/>
+      <c r="B91" s="67"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
       <c r="E91" s="49" t="s">
@@ -3939,9 +3953,9 @@
       <c r="P91" s="19"/>
       <c r="Q91" s="18"/>
     </row>
-    <row r="92" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
-      <c r="B92" s="57"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
       <c r="E92" s="49" t="s">
@@ -3962,9 +3976,9 @@
       <c r="P92" s="28"/>
       <c r="Q92" s="18"/>
     </row>
-    <row r="93" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
-      <c r="B93" s="57"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
       <c r="E93" s="49" t="s">
@@ -3985,9 +3999,9 @@
       <c r="P93" s="28"/>
       <c r="Q93" s="18"/>
     </row>
-    <row r="94" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
-      <c r="B94" s="57"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
       <c r="E94" s="49" t="s">
@@ -4008,9 +4022,9 @@
       <c r="P94" s="28"/>
       <c r="Q94" s="18"/>
     </row>
-    <row r="95" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
-      <c r="B95" s="57"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
       <c r="E95" s="49" t="s">
@@ -4031,9 +4045,9 @@
       <c r="P95" s="28"/>
       <c r="Q95" s="18"/>
     </row>
-    <row r="96" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A96" s="55"/>
-      <c r="B96" s="57"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
       <c r="E96" s="49" t="s">
@@ -4054,9 +4068,9 @@
       <c r="P96" s="28"/>
       <c r="Q96" s="18"/>
     </row>
-    <row r="97" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
-      <c r="B97" s="57"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
       <c r="E97" s="49" t="s">
@@ -4077,9 +4091,9 @@
       <c r="P97" s="28"/>
       <c r="Q97" s="18"/>
     </row>
-    <row r="98" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A98" s="55"/>
-      <c r="B98" s="57"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
       <c r="E98" s="49" t="s">
@@ -4100,9 +4114,9 @@
       <c r="P98" s="28"/>
       <c r="Q98" s="18"/>
     </row>
-    <row r="99" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A99" s="55"/>
-      <c r="B99" s="57"/>
+      <c r="B99" s="67"/>
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
       <c r="E99" s="49" t="s">
@@ -4123,9 +4137,9 @@
       <c r="P99" s="28"/>
       <c r="Q99" s="18"/>
     </row>
-    <row r="100" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A100" s="55"/>
-      <c r="B100" s="57"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
       <c r="E100" s="49" t="s">
@@ -4146,9 +4160,9 @@
       <c r="P100" s="28"/>
       <c r="Q100" s="18"/>
     </row>
-    <row r="101" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A101" s="55"/>
-      <c r="B101" s="57"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
       <c r="E101" s="49" t="s">
@@ -4169,9 +4183,9 @@
       <c r="P101" s="28"/>
       <c r="Q101" s="18"/>
     </row>
-    <row r="102" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A102" s="55"/>
-      <c r="B102" s="57"/>
+      <c r="B102" s="67"/>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
       <c r="E102" s="49" t="s">
@@ -4192,11 +4206,11 @@
       <c r="P102" s="28"/>
       <c r="Q102" s="18"/>
     </row>
-    <row r="103" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="55"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
       <c r="E103" s="49" t="s">
         <v>72</v>
       </c>
@@ -4215,11 +4229,11 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="18"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="56" t="s">
+      <c r="B104" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="58" t="s">
@@ -4246,9 +4260,9 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="18"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="55"/>
-      <c r="B105" s="57"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="59"/>
       <c r="D105" s="59"/>
       <c r="E105" s="12" t="s">
@@ -4269,9 +4283,9 @@
       <c r="P105" s="10"/>
       <c r="Q105" s="18"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="55"/>
-      <c r="B106" s="57"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="59"/>
       <c r="D106" s="59"/>
       <c r="E106" s="12" t="s">
@@ -4292,9 +4306,9 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="18"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="55"/>
-      <c r="B107" s="57"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
       <c r="E107" s="12" t="s">
@@ -4315,9 +4329,9 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="18"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="55"/>
-      <c r="B108" s="57"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="59"/>
       <c r="D108" s="59"/>
       <c r="E108" s="12" t="s">
@@ -4338,9 +4352,9 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="18"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="55"/>
-      <c r="B109" s="57"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="59"/>
       <c r="D109" s="59"/>
       <c r="E109" s="12" t="s">
@@ -4361,9 +4375,9 @@
       <c r="P109" s="28"/>
       <c r="Q109" s="18"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="55"/>
-      <c r="B110" s="57"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="59"/>
       <c r="D110" s="59"/>
       <c r="E110" s="12" t="s">
@@ -4384,9 +4398,9 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="18"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="55"/>
-      <c r="B111" s="57"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="59"/>
       <c r="D111" s="59"/>
       <c r="E111" s="12" t="s">
@@ -4407,9 +4421,9 @@
       <c r="P111" s="28"/>
       <c r="Q111" s="18"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="55"/>
-      <c r="B112" s="57"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="59"/>
       <c r="D112" s="59"/>
       <c r="E112" s="11" t="s">
@@ -4430,9 +4444,9 @@
       <c r="P112" s="28"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="55"/>
-      <c r="B113" s="57"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="59"/>
       <c r="D113" s="59"/>
       <c r="E113" s="17" t="s">
@@ -4453,9 +4467,9 @@
       <c r="P113" s="29"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="55"/>
-      <c r="B114" s="57"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="59"/>
       <c r="D114" s="59"/>
       <c r="E114" s="17" t="s">
@@ -4476,9 +4490,9 @@
       <c r="P114" s="10"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="55"/>
-      <c r="B115" s="57"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="59"/>
       <c r="D115" s="59"/>
       <c r="E115" s="17" t="s">
@@ -4499,9 +4513,9 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="55"/>
-      <c r="B116" s="57"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="59"/>
       <c r="D116" s="59"/>
       <c r="E116" s="17" t="s">
@@ -4522,9 +4536,9 @@
       <c r="P116" s="29"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="55"/>
-      <c r="B117" s="57"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="59"/>
       <c r="D117" s="59"/>
       <c r="E117" s="16" t="s">
@@ -4545,9 +4559,9 @@
       <c r="P117" s="28"/>
       <c r="Q117" s="18"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="55"/>
-      <c r="B118" s="57"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="59"/>
       <c r="D118" s="59"/>
       <c r="E118" s="11" t="s">
@@ -4568,9 +4582,9 @@
       <c r="P118" s="30"/>
       <c r="Q118" s="20"/>
     </row>
-    <row r="119" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A119" s="55"/>
-      <c r="B119" s="57"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="59"/>
       <c r="D119" s="59"/>
       <c r="E119" s="16" t="s">
@@ -4591,9 +4605,9 @@
       <c r="P119" s="10"/>
       <c r="Q119" s="18"/>
     </row>
-    <row r="120" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A120" s="55"/>
-      <c r="B120" s="57"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="59"/>
       <c r="D120" s="59"/>
       <c r="E120" s="16" t="s">
@@ -4614,9 +4628,9 @@
       <c r="P120" s="28"/>
       <c r="Q120" s="18"/>
     </row>
-    <row r="121" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A121" s="55"/>
-      <c r="B121" s="57"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="59"/>
       <c r="D121" s="59"/>
       <c r="E121" s="16" t="s">
@@ -4637,9 +4651,9 @@
       <c r="P121" s="19"/>
       <c r="Q121" s="18"/>
     </row>
-    <row r="122" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A122" s="55"/>
-      <c r="B122" s="57"/>
+      <c r="B122" s="67"/>
       <c r="C122" s="59"/>
       <c r="D122" s="59"/>
       <c r="E122" s="16" t="s">
@@ -4660,9 +4674,9 @@
       <c r="P122" s="28"/>
       <c r="Q122" s="18"/>
     </row>
-    <row r="123" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A123" s="55"/>
-      <c r="B123" s="57"/>
+      <c r="B123" s="67"/>
       <c r="C123" s="59"/>
       <c r="D123" s="59"/>
       <c r="E123" s="16" t="s">
@@ -4683,9 +4697,9 @@
       <c r="P123" s="28"/>
       <c r="Q123" s="18"/>
     </row>
-    <row r="124" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A124" s="55"/>
-      <c r="B124" s="57"/>
+      <c r="B124" s="67"/>
       <c r="C124" s="59"/>
       <c r="D124" s="59"/>
       <c r="E124" s="16" t="s">
@@ -4706,9 +4720,9 @@
       <c r="P124" s="28"/>
       <c r="Q124" s="18"/>
     </row>
-    <row r="125" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A125" s="55"/>
-      <c r="B125" s="57"/>
+      <c r="B125" s="67"/>
       <c r="C125" s="59"/>
       <c r="D125" s="59"/>
       <c r="E125" s="16" t="s">
@@ -4729,9 +4743,9 @@
       <c r="P125" s="28"/>
       <c r="Q125" s="18"/>
     </row>
-    <row r="126" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A126" s="55"/>
-      <c r="B126" s="57"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="59"/>
       <c r="D126" s="59"/>
       <c r="E126" s="16" t="s">
@@ -4752,9 +4766,9 @@
       <c r="P126" s="28"/>
       <c r="Q126" s="18"/>
     </row>
-    <row r="127" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A127" s="55"/>
-      <c r="B127" s="57"/>
+      <c r="B127" s="67"/>
       <c r="C127" s="59"/>
       <c r="D127" s="59"/>
       <c r="E127" s="16" t="s">
@@ -4775,9 +4789,9 @@
       <c r="P127" s="28"/>
       <c r="Q127" s="18"/>
     </row>
-    <row r="128" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A128" s="55"/>
-      <c r="B128" s="57"/>
+      <c r="B128" s="67"/>
       <c r="C128" s="59"/>
       <c r="D128" s="59"/>
       <c r="E128" s="16" t="s">
@@ -4798,9 +4812,9 @@
       <c r="P128" s="28"/>
       <c r="Q128" s="18"/>
     </row>
-    <row r="129" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A129" s="55"/>
-      <c r="B129" s="57"/>
+      <c r="B129" s="67"/>
       <c r="C129" s="59"/>
       <c r="D129" s="59"/>
       <c r="E129" s="16" t="s">
@@ -4821,9 +4835,9 @@
       <c r="P129" s="28"/>
       <c r="Q129" s="18"/>
     </row>
-    <row r="130" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A130" s="55"/>
-      <c r="B130" s="57"/>
+      <c r="B130" s="67"/>
       <c r="C130" s="59"/>
       <c r="D130" s="59"/>
       <c r="E130" s="16" t="s">
@@ -4844,9 +4858,9 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="18"/>
     </row>
-    <row r="131" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A131" s="55"/>
-      <c r="B131" s="57"/>
+      <c r="B131" s="67"/>
       <c r="C131" s="59"/>
       <c r="D131" s="59"/>
       <c r="E131" s="16" t="s">
@@ -4867,9 +4881,9 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="18"/>
     </row>
-    <row r="132" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A132" s="55"/>
-      <c r="B132" s="57"/>
+      <c r="B132" s="67"/>
       <c r="C132" s="59"/>
       <c r="D132" s="59"/>
       <c r="E132" s="16" t="s">
@@ -4890,11 +4904,11 @@
       <c r="P132" s="28"/>
       <c r="Q132" s="18"/>
     </row>
-    <row r="133" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A133" s="55"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
       <c r="E133" s="16" t="s">
         <v>49</v>
       </c>
@@ -4913,11 +4927,11 @@
       <c r="P133" s="10"/>
       <c r="Q133" s="18"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C134" s="58" t="s">
@@ -4944,9 +4958,9 @@
       <c r="P134" s="10"/>
       <c r="Q134" s="18"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="55"/>
-      <c r="B135" s="57"/>
+      <c r="B135" s="67"/>
       <c r="C135" s="59"/>
       <c r="D135" s="59"/>
       <c r="E135" s="46" t="s">
@@ -4967,9 +4981,9 @@
       <c r="P135" s="10"/>
       <c r="Q135" s="18"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="55"/>
-      <c r="B136" s="57"/>
+      <c r="B136" s="67"/>
       <c r="C136" s="59"/>
       <c r="D136" s="59"/>
       <c r="E136" s="46" t="s">
@@ -4990,9 +5004,9 @@
       <c r="P136" s="10"/>
       <c r="Q136" s="18"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="55"/>
-      <c r="B137" s="57"/>
+      <c r="B137" s="67"/>
       <c r="C137" s="59"/>
       <c r="D137" s="59"/>
       <c r="E137" s="46" t="s">
@@ -5013,9 +5027,9 @@
       <c r="P137" s="10"/>
       <c r="Q137" s="18"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="55"/>
-      <c r="B138" s="57"/>
+      <c r="B138" s="67"/>
       <c r="C138" s="59"/>
       <c r="D138" s="59"/>
       <c r="E138" s="46" t="s">
@@ -5036,9 +5050,9 @@
       <c r="P138" s="10"/>
       <c r="Q138" s="18"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="55"/>
-      <c r="B139" s="57"/>
+      <c r="B139" s="67"/>
       <c r="C139" s="59"/>
       <c r="D139" s="59"/>
       <c r="E139" s="12" t="s">
@@ -5059,9 +5073,9 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="18"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="55"/>
-      <c r="B140" s="57"/>
+      <c r="B140" s="67"/>
       <c r="C140" s="59"/>
       <c r="D140" s="59"/>
       <c r="E140" s="46" t="s">
@@ -5082,9 +5096,9 @@
       <c r="P140" s="10"/>
       <c r="Q140" s="18"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="55"/>
-      <c r="B141" s="57"/>
+      <c r="B141" s="67"/>
       <c r="C141" s="59"/>
       <c r="D141" s="59"/>
       <c r="E141" s="46" t="s">
@@ -5105,9 +5119,9 @@
       <c r="P141" s="28"/>
       <c r="Q141" s="18"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="55"/>
-      <c r="B142" s="57"/>
+      <c r="B142" s="67"/>
       <c r="C142" s="59"/>
       <c r="D142" s="59"/>
       <c r="E142" s="47" t="s">
@@ -5128,9 +5142,9 @@
       <c r="P142" s="28"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="55"/>
-      <c r="B143" s="57"/>
+      <c r="B143" s="67"/>
       <c r="C143" s="59"/>
       <c r="D143" s="59"/>
       <c r="E143" s="17" t="s">
@@ -5151,9 +5165,9 @@
       <c r="P143" s="29"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:17" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A144" s="55"/>
-      <c r="B144" s="57"/>
+      <c r="B144" s="67"/>
       <c r="C144" s="59"/>
       <c r="D144" s="59"/>
       <c r="E144" s="44" t="s">
@@ -5174,9 +5188,9 @@
       <c r="P144" s="29"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="55"/>
-      <c r="B145" s="57"/>
+      <c r="B145" s="67"/>
       <c r="C145" s="59"/>
       <c r="D145" s="59"/>
       <c r="E145" s="44" t="s">
@@ -5197,9 +5211,9 @@
       <c r="P145" s="10"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="55"/>
-      <c r="B146" s="57"/>
+      <c r="B146" s="67"/>
       <c r="C146" s="59"/>
       <c r="D146" s="59"/>
       <c r="E146" s="17" t="s">
@@ -5220,9 +5234,9 @@
       <c r="P146" s="10"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="55"/>
-      <c r="B147" s="57"/>
+      <c r="B147" s="67"/>
       <c r="C147" s="59"/>
       <c r="D147" s="59"/>
       <c r="E147" s="17" t="s">
@@ -5243,9 +5257,9 @@
       <c r="P147" s="29"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="55"/>
-      <c r="B148" s="57"/>
+      <c r="B148" s="67"/>
       <c r="C148" s="59"/>
       <c r="D148" s="59"/>
       <c r="E148" s="16" t="s">
@@ -5266,9 +5280,9 @@
       <c r="P148" s="28"/>
       <c r="Q148" s="18"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="55"/>
-      <c r="B149" s="57"/>
+      <c r="B149" s="67"/>
       <c r="C149" s="59"/>
       <c r="D149" s="59"/>
       <c r="E149" s="11" t="s">
@@ -5289,9 +5303,9 @@
       <c r="P149" s="30"/>
       <c r="Q149" s="20"/>
     </row>
-    <row r="150" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A150" s="55"/>
-      <c r="B150" s="57"/>
+      <c r="B150" s="67"/>
       <c r="C150" s="59"/>
       <c r="D150" s="59"/>
       <c r="E150" s="16" t="s">
@@ -5312,9 +5326,9 @@
       <c r="P150" s="10"/>
       <c r="Q150" s="18"/>
     </row>
-    <row r="151" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A151" s="55"/>
-      <c r="B151" s="57"/>
+      <c r="B151" s="67"/>
       <c r="C151" s="59"/>
       <c r="D151" s="59"/>
       <c r="E151" s="49" t="s">
@@ -5335,9 +5349,9 @@
       <c r="P151" s="28"/>
       <c r="Q151" s="18"/>
     </row>
-    <row r="152" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A152" s="55"/>
-      <c r="B152" s="57"/>
+      <c r="B152" s="67"/>
       <c r="C152" s="59"/>
       <c r="D152" s="59"/>
       <c r="E152" s="49" t="s">
@@ -5358,9 +5372,9 @@
       <c r="P152" s="19"/>
       <c r="Q152" s="18"/>
     </row>
-    <row r="153" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A153" s="55"/>
-      <c r="B153" s="57"/>
+      <c r="B153" s="67"/>
       <c r="C153" s="59"/>
       <c r="D153" s="59"/>
       <c r="E153" s="49" t="s">
@@ -5381,9 +5395,9 @@
       <c r="P153" s="28"/>
       <c r="Q153" s="18"/>
     </row>
-    <row r="154" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A154" s="55"/>
-      <c r="B154" s="57"/>
+      <c r="B154" s="67"/>
       <c r="C154" s="59"/>
       <c r="D154" s="59"/>
       <c r="E154" s="49" t="s">
@@ -5404,9 +5418,9 @@
       <c r="P154" s="28"/>
       <c r="Q154" s="18"/>
     </row>
-    <row r="155" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A155" s="55"/>
-      <c r="B155" s="57"/>
+      <c r="B155" s="67"/>
       <c r="C155" s="59"/>
       <c r="D155" s="59"/>
       <c r="E155" s="49" t="s">
@@ -5427,9 +5441,9 @@
       <c r="P155" s="28"/>
       <c r="Q155" s="18"/>
     </row>
-    <row r="156" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A156" s="55"/>
-      <c r="B156" s="57"/>
+      <c r="B156" s="67"/>
       <c r="C156" s="59"/>
       <c r="D156" s="59"/>
       <c r="E156" s="49" t="s">
@@ -5450,9 +5464,9 @@
       <c r="P156" s="28"/>
       <c r="Q156" s="18"/>
     </row>
-    <row r="157" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A157" s="55"/>
-      <c r="B157" s="57"/>
+      <c r="B157" s="67"/>
       <c r="C157" s="59"/>
       <c r="D157" s="59"/>
       <c r="E157" s="49" t="s">
@@ -5473,9 +5487,9 @@
       <c r="P157" s="28"/>
       <c r="Q157" s="18"/>
     </row>
-    <row r="158" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A158" s="55"/>
-      <c r="B158" s="57"/>
+      <c r="B158" s="67"/>
       <c r="C158" s="59"/>
       <c r="D158" s="59"/>
       <c r="E158" s="49" t="s">
@@ -5496,11 +5510,11 @@
       <c r="P158" s="28"/>
       <c r="Q158" s="18"/>
     </row>
-    <row r="159" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A159" s="55"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
       <c r="E159" s="49" t="s">
         <v>77</v>
       </c>
@@ -5519,11 +5533,11 @@
       <c r="P159" s="10"/>
       <c r="Q159" s="18"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="B160" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C160" s="58" t="s">
@@ -5550,9 +5564,9 @@
       <c r="P160" s="10"/>
       <c r="Q160" s="18"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="55"/>
-      <c r="B161" s="57"/>
+      <c r="B161" s="67"/>
       <c r="C161" s="59"/>
       <c r="D161" s="59"/>
       <c r="E161" s="12" t="s">
@@ -5573,9 +5587,9 @@
       <c r="P161" s="10"/>
       <c r="Q161" s="18"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="55"/>
-      <c r="B162" s="57"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="59"/>
       <c r="D162" s="59"/>
       <c r="E162" s="12" t="s">
@@ -5596,9 +5610,9 @@
       <c r="P162" s="10"/>
       <c r="Q162" s="18"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="55"/>
-      <c r="B163" s="57"/>
+      <c r="B163" s="67"/>
       <c r="C163" s="59"/>
       <c r="D163" s="59"/>
       <c r="E163" s="12" t="s">
@@ -5619,9 +5633,9 @@
       <c r="P163" s="10"/>
       <c r="Q163" s="18"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="55"/>
-      <c r="B164" s="57"/>
+      <c r="B164" s="67"/>
       <c r="C164" s="59"/>
       <c r="D164" s="59"/>
       <c r="E164" s="12" t="s">
@@ -5642,9 +5656,9 @@
       <c r="P164" s="10"/>
       <c r="Q164" s="18"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="55"/>
-      <c r="B165" s="57"/>
+      <c r="B165" s="67"/>
       <c r="C165" s="59"/>
       <c r="D165" s="59"/>
       <c r="E165" s="12" t="s">
@@ -5665,9 +5679,9 @@
       <c r="P165" s="28"/>
       <c r="Q165" s="18"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="55"/>
-      <c r="B166" s="57"/>
+      <c r="B166" s="67"/>
       <c r="C166" s="59"/>
       <c r="D166" s="59"/>
       <c r="E166" s="12" t="s">
@@ -5688,9 +5702,9 @@
       <c r="P166" s="28"/>
       <c r="Q166" s="18"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="55"/>
-      <c r="B167" s="57"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="59"/>
       <c r="D167" s="59"/>
       <c r="E167" s="11" t="s">
@@ -5711,9 +5725,9 @@
       <c r="P167" s="28"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="55"/>
-      <c r="B168" s="57"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="59"/>
       <c r="D168" s="59"/>
       <c r="E168" s="17" t="s">
@@ -5734,9 +5748,9 @@
       <c r="P168" s="29"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="55"/>
-      <c r="B169" s="57"/>
+      <c r="B169" s="67"/>
       <c r="C169" s="59"/>
       <c r="D169" s="59"/>
       <c r="E169" s="17" t="s">
@@ -5757,9 +5771,9 @@
       <c r="P169" s="10"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A170" s="55"/>
-      <c r="B170" s="57"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="59"/>
       <c r="D170" s="59"/>
       <c r="E170" s="16" t="s">
@@ -5780,9 +5794,9 @@
       <c r="P170" s="28"/>
       <c r="Q170" s="18"/>
     </row>
-    <row r="171" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A171" s="55"/>
-      <c r="B171" s="57"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="59"/>
       <c r="D171" s="59"/>
       <c r="E171" s="16" t="s">
@@ -5803,9 +5817,9 @@
       <c r="P171" s="28"/>
       <c r="Q171" s="18"/>
     </row>
-    <row r="172" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A172" s="55"/>
-      <c r="B172" s="57"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="59"/>
       <c r="D172" s="59"/>
       <c r="E172" s="16" t="s">
@@ -5826,9 +5840,9 @@
       <c r="P172" s="28"/>
       <c r="Q172" s="18"/>
     </row>
-    <row r="173" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A173" s="55"/>
-      <c r="B173" s="57"/>
+      <c r="B173" s="67"/>
       <c r="C173" s="59"/>
       <c r="D173" s="59"/>
       <c r="E173" s="16" t="s">
@@ -5849,11 +5863,11 @@
       <c r="P173" s="28"/>
       <c r="Q173" s="18"/>
     </row>
-    <row r="174" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A174" s="55"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="60"/>
-      <c r="D174" s="60"/>
+      <c r="B174" s="67"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
       <c r="E174" s="16" t="s">
         <v>77</v>
       </c>
@@ -5872,11 +5886,11 @@
       <c r="P174" s="10"/>
       <c r="Q174" s="18"/>
     </row>
-    <row r="175" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="66" t="s">
+      <c r="B175" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C175" s="58" t="s">
@@ -5899,13 +5913,15 @@
       <c r="L175" s="22"/>
       <c r="M175" s="18"/>
       <c r="N175" s="17"/>
-      <c r="O175" s="26"/>
+      <c r="O175" s="72">
+        <v>1</v>
+      </c>
       <c r="P175" s="10"/>
-      <c r="Q175" s="69"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q175" s="60"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="55"/>
-      <c r="B176" s="67"/>
+      <c r="B176" s="57"/>
       <c r="C176" s="59"/>
       <c r="D176" s="59"/>
       <c r="E176" s="44" t="s">
@@ -5922,13 +5938,13 @@
       <c r="L176" s="22"/>
       <c r="M176" s="18"/>
       <c r="N176" s="17"/>
-      <c r="O176" s="26"/>
+      <c r="O176" s="73"/>
       <c r="P176" s="10"/>
-      <c r="Q176" s="70"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q176" s="61"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="55"/>
-      <c r="B177" s="67"/>
+      <c r="B177" s="57"/>
       <c r="C177" s="59"/>
       <c r="D177" s="59"/>
       <c r="E177" s="44" t="s">
@@ -5945,13 +5961,13 @@
       <c r="L177" s="22"/>
       <c r="M177" s="18"/>
       <c r="N177" s="17"/>
-      <c r="O177" s="26"/>
+      <c r="O177" s="73"/>
       <c r="P177" s="10"/>
-      <c r="Q177" s="70"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q177" s="61"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="55"/>
-      <c r="B178" s="67"/>
+      <c r="B178" s="57"/>
       <c r="C178" s="59"/>
       <c r="D178" s="59"/>
       <c r="E178" s="44" t="s">
@@ -5968,13 +5984,13 @@
       <c r="L178" s="22"/>
       <c r="M178" s="18"/>
       <c r="N178" s="17"/>
-      <c r="O178" s="26"/>
+      <c r="O178" s="73"/>
       <c r="P178" s="10"/>
-      <c r="Q178" s="70"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q178" s="61"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="55"/>
-      <c r="B179" s="67"/>
+      <c r="B179" s="57"/>
       <c r="C179" s="59"/>
       <c r="D179" s="59"/>
       <c r="E179" s="44" t="s">
@@ -5991,13 +6007,13 @@
       <c r="L179" s="22"/>
       <c r="M179" s="18"/>
       <c r="N179" s="17"/>
-      <c r="O179" s="26"/>
+      <c r="O179" s="73"/>
       <c r="P179" s="10"/>
-      <c r="Q179" s="70"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q179" s="61"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="55"/>
-      <c r="B180" s="67"/>
+      <c r="B180" s="57"/>
       <c r="C180" s="59"/>
       <c r="D180" s="59"/>
       <c r="E180" s="44" t="s">
@@ -6014,13 +6030,13 @@
       <c r="L180" s="22"/>
       <c r="M180" s="18"/>
       <c r="N180" s="17"/>
-      <c r="O180" s="26"/>
+      <c r="O180" s="73"/>
       <c r="P180" s="10"/>
-      <c r="Q180" s="70"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q180" s="61"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="55"/>
-      <c r="B181" s="67"/>
+      <c r="B181" s="57"/>
       <c r="C181" s="59"/>
       <c r="D181" s="59"/>
       <c r="E181" s="44" t="s">
@@ -6037,13 +6053,13 @@
       <c r="L181" s="22"/>
       <c r="M181" s="18"/>
       <c r="N181" s="17"/>
-      <c r="O181" s="26"/>
+      <c r="O181" s="73"/>
       <c r="P181" s="10"/>
-      <c r="Q181" s="70"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q181" s="61"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="55"/>
-      <c r="B182" s="67"/>
+      <c r="B182" s="57"/>
       <c r="C182" s="59"/>
       <c r="D182" s="59"/>
       <c r="E182" s="44" t="s">
@@ -6060,13 +6076,13 @@
       <c r="L182" s="22"/>
       <c r="M182" s="18"/>
       <c r="N182" s="17"/>
-      <c r="O182" s="26"/>
+      <c r="O182" s="73"/>
       <c r="P182" s="10"/>
-      <c r="Q182" s="70"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q182" s="61"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="55"/>
-      <c r="B183" s="67"/>
+      <c r="B183" s="57"/>
       <c r="C183" s="59"/>
       <c r="D183" s="59"/>
       <c r="E183" s="44" t="s">
@@ -6083,13 +6099,13 @@
       <c r="L183" s="22"/>
       <c r="M183" s="18"/>
       <c r="N183" s="17"/>
-      <c r="O183" s="26"/>
+      <c r="O183" s="73"/>
       <c r="P183" s="10"/>
-      <c r="Q183" s="70"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q183" s="61"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="55"/>
-      <c r="B184" s="67"/>
+      <c r="B184" s="57"/>
       <c r="C184" s="59"/>
       <c r="D184" s="59"/>
       <c r="E184" s="44" t="s">
@@ -6106,15 +6122,15 @@
       <c r="L184" s="22"/>
       <c r="M184" s="18"/>
       <c r="N184" s="17"/>
-      <c r="O184" s="26"/>
+      <c r="O184" s="73"/>
       <c r="P184" s="10"/>
-      <c r="Q184" s="70"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A185" s="65"/>
-      <c r="B185" s="68"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="60"/>
+      <c r="Q184" s="61"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185" s="62"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="64"/>
+      <c r="D185" s="64"/>
       <c r="E185" s="44" t="s">
         <v>94</v>
       </c>
@@ -6129,15 +6145,15 @@
       <c r="L185" s="22"/>
       <c r="M185" s="18"/>
       <c r="N185" s="17"/>
-      <c r="O185" s="26"/>
+      <c r="O185" s="74"/>
       <c r="P185" s="10"/>
-      <c r="Q185" s="71"/>
-    </row>
-    <row r="186" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q185" s="65"/>
+    </row>
+    <row r="186" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B186" s="66" t="s">
+      <c r="B186" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C186" s="58" t="s">
@@ -6160,13 +6176,15 @@
       <c r="L186" s="22"/>
       <c r="M186" s="18"/>
       <c r="N186" s="17"/>
-      <c r="O186" s="26"/>
+      <c r="O186" s="72">
+        <v>1</v>
+      </c>
       <c r="P186" s="10"/>
-      <c r="Q186" s="69"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q186" s="60"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="55"/>
-      <c r="B187" s="67"/>
+      <c r="B187" s="57"/>
       <c r="C187" s="59"/>
       <c r="D187" s="59"/>
       <c r="E187" s="44" t="s">
@@ -6183,13 +6201,13 @@
       <c r="L187" s="22"/>
       <c r="M187" s="18"/>
       <c r="N187" s="17"/>
-      <c r="O187" s="26"/>
+      <c r="O187" s="73"/>
       <c r="P187" s="10"/>
-      <c r="Q187" s="70"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q187" s="61"/>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="55"/>
-      <c r="B188" s="67"/>
+      <c r="B188" s="57"/>
       <c r="C188" s="59"/>
       <c r="D188" s="59"/>
       <c r="E188" s="44" t="s">
@@ -6206,13 +6224,13 @@
       <c r="L188" s="22"/>
       <c r="M188" s="18"/>
       <c r="N188" s="17"/>
-      <c r="O188" s="26"/>
+      <c r="O188" s="73"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="70"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q188" s="61"/>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="55"/>
-      <c r="B189" s="67"/>
+      <c r="B189" s="57"/>
       <c r="C189" s="59"/>
       <c r="D189" s="59"/>
       <c r="E189" s="44" t="s">
@@ -6229,13 +6247,13 @@
       <c r="L189" s="22"/>
       <c r="M189" s="18"/>
       <c r="N189" s="17"/>
-      <c r="O189" s="26"/>
+      <c r="O189" s="73"/>
       <c r="P189" s="10"/>
-      <c r="Q189" s="70"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q189" s="61"/>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="55"/>
-      <c r="B190" s="67"/>
+      <c r="B190" s="57"/>
       <c r="C190" s="59"/>
       <c r="D190" s="59"/>
       <c r="E190" s="44" t="s">
@@ -6252,13 +6270,13 @@
       <c r="L190" s="22"/>
       <c r="M190" s="18"/>
       <c r="N190" s="17"/>
-      <c r="O190" s="26"/>
+      <c r="O190" s="73"/>
       <c r="P190" s="10"/>
-      <c r="Q190" s="70"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q190" s="61"/>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="55"/>
-      <c r="B191" s="67"/>
+      <c r="B191" s="57"/>
       <c r="C191" s="59"/>
       <c r="D191" s="59"/>
       <c r="E191" s="44" t="s">
@@ -6275,13 +6293,13 @@
       <c r="L191" s="22"/>
       <c r="M191" s="18"/>
       <c r="N191" s="17"/>
-      <c r="O191" s="26"/>
+      <c r="O191" s="73"/>
       <c r="P191" s="10"/>
-      <c r="Q191" s="70"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q191" s="61"/>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="55"/>
-      <c r="B192" s="67"/>
+      <c r="B192" s="57"/>
       <c r="C192" s="59"/>
       <c r="D192" s="59"/>
       <c r="E192" s="44" t="s">
@@ -6298,13 +6316,13 @@
       <c r="L192" s="22"/>
       <c r="M192" s="18"/>
       <c r="N192" s="17"/>
-      <c r="O192" s="26"/>
+      <c r="O192" s="73"/>
       <c r="P192" s="10"/>
-      <c r="Q192" s="70"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q192" s="61"/>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="55"/>
-      <c r="B193" s="67"/>
+      <c r="B193" s="57"/>
       <c r="C193" s="59"/>
       <c r="D193" s="59"/>
       <c r="E193" s="44" t="s">
@@ -6321,13 +6339,13 @@
       <c r="L193" s="22"/>
       <c r="M193" s="18"/>
       <c r="N193" s="17"/>
-      <c r="O193" s="26"/>
+      <c r="O193" s="73"/>
       <c r="P193" s="10"/>
-      <c r="Q193" s="70"/>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q193" s="61"/>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="55"/>
-      <c r="B194" s="67"/>
+      <c r="B194" s="57"/>
       <c r="C194" s="59"/>
       <c r="D194" s="59"/>
       <c r="E194" s="44" t="s">
@@ -6344,13 +6362,13 @@
       <c r="L194" s="22"/>
       <c r="M194" s="18"/>
       <c r="N194" s="17"/>
-      <c r="O194" s="26"/>
+      <c r="O194" s="73"/>
       <c r="P194" s="10"/>
-      <c r="Q194" s="70"/>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q194" s="61"/>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="55"/>
-      <c r="B195" s="67"/>
+      <c r="B195" s="57"/>
       <c r="C195" s="59"/>
       <c r="D195" s="59"/>
       <c r="E195" s="44" t="s">
@@ -6367,13 +6385,13 @@
       <c r="L195" s="22"/>
       <c r="M195" s="18"/>
       <c r="N195" s="17"/>
-      <c r="O195" s="26"/>
+      <c r="O195" s="73"/>
       <c r="P195" s="10"/>
-      <c r="Q195" s="70"/>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q195" s="61"/>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="55"/>
-      <c r="B196" s="67"/>
+      <c r="B196" s="57"/>
       <c r="C196" s="59"/>
       <c r="D196" s="59"/>
       <c r="E196" s="44" t="s">
@@ -6390,13 +6408,13 @@
       <c r="L196" s="22"/>
       <c r="M196" s="18"/>
       <c r="N196" s="17"/>
-      <c r="O196" s="26"/>
+      <c r="O196" s="73"/>
       <c r="P196" s="10"/>
-      <c r="Q196" s="70"/>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q196" s="61"/>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="55"/>
-      <c r="B197" s="67"/>
+      <c r="B197" s="57"/>
       <c r="C197" s="59"/>
       <c r="D197" s="59"/>
       <c r="E197" s="44" t="s">
@@ -6413,13 +6431,13 @@
       <c r="L197" s="22"/>
       <c r="M197" s="18"/>
       <c r="N197" s="17"/>
-      <c r="O197" s="26"/>
+      <c r="O197" s="73"/>
       <c r="P197" s="10"/>
-      <c r="Q197" s="70"/>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q197" s="61"/>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="55"/>
-      <c r="B198" s="67"/>
+      <c r="B198" s="57"/>
       <c r="C198" s="59"/>
       <c r="D198" s="59"/>
       <c r="E198" s="44" t="s">
@@ -6436,15 +6454,15 @@
       <c r="L198" s="22"/>
       <c r="M198" s="18"/>
       <c r="N198" s="17"/>
-      <c r="O198" s="26"/>
+      <c r="O198" s="73"/>
       <c r="P198" s="10"/>
-      <c r="Q198" s="70"/>
-    </row>
-    <row r="199" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q198" s="61"/>
+    </row>
+    <row r="199" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B199" s="66" t="s">
+      <c r="B199" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C199" s="58" t="s">
@@ -6467,13 +6485,13 @@
       <c r="L199" s="22"/>
       <c r="M199" s="18"/>
       <c r="N199" s="17"/>
-      <c r="O199" s="26"/>
+      <c r="O199" s="74"/>
       <c r="P199" s="10"/>
-      <c r="Q199" s="69"/>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q199" s="60"/>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="55"/>
-      <c r="B200" s="67"/>
+      <c r="B200" s="57"/>
       <c r="C200" s="59"/>
       <c r="D200" s="59"/>
       <c r="E200" s="44" t="s">
@@ -6492,11 +6510,11 @@
       <c r="N200" s="17"/>
       <c r="O200" s="26"/>
       <c r="P200" s="10"/>
-      <c r="Q200" s="70"/>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q200" s="61"/>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="55"/>
-      <c r="B201" s="67"/>
+      <c r="B201" s="57"/>
       <c r="C201" s="59"/>
       <c r="D201" s="59"/>
       <c r="E201" s="44" t="s">
@@ -6515,11 +6533,11 @@
       <c r="N201" s="17"/>
       <c r="O201" s="26"/>
       <c r="P201" s="10"/>
-      <c r="Q201" s="70"/>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q201" s="61"/>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="55"/>
-      <c r="B202" s="67"/>
+      <c r="B202" s="57"/>
       <c r="C202" s="59"/>
       <c r="D202" s="59"/>
       <c r="E202" s="44" t="s">
@@ -6538,11 +6556,11 @@
       <c r="N202" s="17"/>
       <c r="O202" s="26"/>
       <c r="P202" s="10"/>
-      <c r="Q202" s="70"/>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q202" s="61"/>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="55"/>
-      <c r="B203" s="67"/>
+      <c r="B203" s="57"/>
       <c r="C203" s="59"/>
       <c r="D203" s="59"/>
       <c r="E203" s="44" t="s">
@@ -6561,11 +6579,11 @@
       <c r="N203" s="17"/>
       <c r="O203" s="26"/>
       <c r="P203" s="10"/>
-      <c r="Q203" s="70"/>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q203" s="61"/>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="55"/>
-      <c r="B204" s="67"/>
+      <c r="B204" s="57"/>
       <c r="C204" s="59"/>
       <c r="D204" s="59"/>
       <c r="E204" s="44" t="s">
@@ -6584,11 +6602,11 @@
       <c r="N204" s="17"/>
       <c r="O204" s="26"/>
       <c r="P204" s="10"/>
-      <c r="Q204" s="70"/>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q204" s="61"/>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="55"/>
-      <c r="B205" s="67"/>
+      <c r="B205" s="57"/>
       <c r="C205" s="59"/>
       <c r="D205" s="59"/>
       <c r="E205" s="44" t="s">
@@ -6607,11 +6625,11 @@
       <c r="N205" s="17"/>
       <c r="O205" s="26"/>
       <c r="P205" s="10"/>
-      <c r="Q205" s="70"/>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q205" s="61"/>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="55"/>
-      <c r="B206" s="67"/>
+      <c r="B206" s="57"/>
       <c r="C206" s="59"/>
       <c r="D206" s="59"/>
       <c r="E206" s="44" t="s">
@@ -6630,11 +6648,11 @@
       <c r="N206" s="17"/>
       <c r="O206" s="26"/>
       <c r="P206" s="10"/>
-      <c r="Q206" s="70"/>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q206" s="61"/>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="55"/>
-      <c r="B207" s="67"/>
+      <c r="B207" s="57"/>
       <c r="C207" s="59"/>
       <c r="D207" s="59"/>
       <c r="E207" s="44" t="s">
@@ -6653,11 +6671,11 @@
       <c r="N207" s="17"/>
       <c r="O207" s="26"/>
       <c r="P207" s="10"/>
-      <c r="Q207" s="70"/>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q207" s="61"/>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="55"/>
-      <c r="B208" s="67"/>
+      <c r="B208" s="57"/>
       <c r="C208" s="59"/>
       <c r="D208" s="59"/>
       <c r="E208" s="44" t="s">
@@ -6676,13 +6694,13 @@
       <c r="N208" s="17"/>
       <c r="O208" s="26"/>
       <c r="P208" s="10"/>
-      <c r="Q208" s="70"/>
-    </row>
-    <row r="209" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q208" s="61"/>
+    </row>
+    <row r="209" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B209" s="66" t="s">
+      <c r="B209" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C209" s="58" t="s">
@@ -6707,11 +6725,11 @@
       <c r="N209" s="17"/>
       <c r="O209" s="26"/>
       <c r="P209" s="10"/>
-      <c r="Q209" s="69"/>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q209" s="60"/>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="55"/>
-      <c r="B210" s="67"/>
+      <c r="B210" s="57"/>
       <c r="C210" s="59"/>
       <c r="D210" s="59"/>
       <c r="E210" s="44" t="s">
@@ -6730,11 +6748,11 @@
       <c r="N210" s="17"/>
       <c r="O210" s="26"/>
       <c r="P210" s="10"/>
-      <c r="Q210" s="70"/>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q210" s="61"/>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="55"/>
-      <c r="B211" s="67"/>
+      <c r="B211" s="57"/>
       <c r="C211" s="59"/>
       <c r="D211" s="59"/>
       <c r="E211" s="44" t="s">
@@ -6753,11 +6771,11 @@
       <c r="N211" s="17"/>
       <c r="O211" s="26"/>
       <c r="P211" s="10"/>
-      <c r="Q211" s="70"/>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q211" s="61"/>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="55"/>
-      <c r="B212" s="67"/>
+      <c r="B212" s="57"/>
       <c r="C212" s="59"/>
       <c r="D212" s="59"/>
       <c r="E212" s="44" t="s">
@@ -6776,11 +6794,11 @@
       <c r="N212" s="17"/>
       <c r="O212" s="26"/>
       <c r="P212" s="10"/>
-      <c r="Q212" s="70"/>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q212" s="61"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="55"/>
-      <c r="B213" s="67"/>
+      <c r="B213" s="57"/>
       <c r="C213" s="59"/>
       <c r="D213" s="59"/>
       <c r="E213" s="44" t="s">
@@ -6799,11 +6817,11 @@
       <c r="N213" s="17"/>
       <c r="O213" s="26"/>
       <c r="P213" s="10"/>
-      <c r="Q213" s="70"/>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q213" s="61"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="55"/>
-      <c r="B214" s="67"/>
+      <c r="B214" s="57"/>
       <c r="C214" s="59"/>
       <c r="D214" s="59"/>
       <c r="E214" s="44" t="s">
@@ -6822,11 +6840,11 @@
       <c r="N214" s="17"/>
       <c r="O214" s="26"/>
       <c r="P214" s="10"/>
-      <c r="Q214" s="70"/>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q214" s="61"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="55"/>
-      <c r="B215" s="67"/>
+      <c r="B215" s="57"/>
       <c r="C215" s="59"/>
       <c r="D215" s="59"/>
       <c r="E215" s="44" t="s">
@@ -6845,11 +6863,11 @@
       <c r="N215" s="17"/>
       <c r="O215" s="26"/>
       <c r="P215" s="10"/>
-      <c r="Q215" s="70"/>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q215" s="61"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="55"/>
-      <c r="B216" s="67"/>
+      <c r="B216" s="57"/>
       <c r="C216" s="59"/>
       <c r="D216" s="59"/>
       <c r="E216" s="44" t="s">
@@ -6868,11 +6886,11 @@
       <c r="N216" s="17"/>
       <c r="O216" s="26"/>
       <c r="P216" s="10"/>
-      <c r="Q216" s="70"/>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q216" s="61"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="55"/>
-      <c r="B217" s="67"/>
+      <c r="B217" s="57"/>
       <c r="C217" s="59"/>
       <c r="D217" s="59"/>
       <c r="E217" s="44" t="s">
@@ -6891,11 +6909,11 @@
       <c r="N217" s="17"/>
       <c r="O217" s="26"/>
       <c r="P217" s="10"/>
-      <c r="Q217" s="70"/>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q217" s="61"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="55"/>
-      <c r="B218" s="67"/>
+      <c r="B218" s="57"/>
       <c r="C218" s="59"/>
       <c r="D218" s="59"/>
       <c r="E218" s="44" t="s">
@@ -6914,13 +6932,13 @@
       <c r="N218" s="17"/>
       <c r="O218" s="26"/>
       <c r="P218" s="10"/>
-      <c r="Q218" s="70"/>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A219" s="65"/>
-      <c r="B219" s="68"/>
-      <c r="C219" s="60"/>
-      <c r="D219" s="60"/>
+      <c r="Q218" s="61"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219" s="62"/>
+      <c r="B219" s="63"/>
+      <c r="C219" s="64"/>
+      <c r="D219" s="64"/>
       <c r="E219" s="44" t="s">
         <v>94</v>
       </c>
@@ -6937,13 +6955,13 @@
       <c r="N219" s="17"/>
       <c r="O219" s="26"/>
       <c r="P219" s="10"/>
-      <c r="Q219" s="71"/>
-    </row>
-    <row r="220" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q219" s="65"/>
+    </row>
+    <row r="220" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B220" s="66" t="s">
+      <c r="B220" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C220" s="58" t="s">
@@ -6968,11 +6986,11 @@
       <c r="N220" s="17"/>
       <c r="O220" s="26"/>
       <c r="P220" s="10"/>
-      <c r="Q220" s="69"/>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q220" s="60"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="55"/>
-      <c r="B221" s="67"/>
+      <c r="B221" s="57"/>
       <c r="C221" s="59"/>
       <c r="D221" s="59"/>
       <c r="E221" s="44" t="s">
@@ -6991,11 +7009,11 @@
       <c r="N221" s="17"/>
       <c r="O221" s="26"/>
       <c r="P221" s="10"/>
-      <c r="Q221" s="70"/>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q221" s="61"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="55"/>
-      <c r="B222" s="67"/>
+      <c r="B222" s="57"/>
       <c r="C222" s="59"/>
       <c r="D222" s="59"/>
       <c r="E222" s="44" t="s">
@@ -7014,11 +7032,11 @@
       <c r="N222" s="17"/>
       <c r="O222" s="26"/>
       <c r="P222" s="10"/>
-      <c r="Q222" s="70"/>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q222" s="61"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="55"/>
-      <c r="B223" s="67"/>
+      <c r="B223" s="57"/>
       <c r="C223" s="59"/>
       <c r="D223" s="59"/>
       <c r="E223" s="44" t="s">
@@ -7037,11 +7055,11 @@
       <c r="N223" s="17"/>
       <c r="O223" s="26"/>
       <c r="P223" s="10"/>
-      <c r="Q223" s="70"/>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q223" s="61"/>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="55"/>
-      <c r="B224" s="67"/>
+      <c r="B224" s="57"/>
       <c r="C224" s="59"/>
       <c r="D224" s="59"/>
       <c r="E224" s="44" t="s">
@@ -7060,11 +7078,11 @@
       <c r="N224" s="17"/>
       <c r="O224" s="26"/>
       <c r="P224" s="10"/>
-      <c r="Q224" s="70"/>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q224" s="61"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="55"/>
-      <c r="B225" s="67"/>
+      <c r="B225" s="57"/>
       <c r="C225" s="59"/>
       <c r="D225" s="59"/>
       <c r="E225" s="44" t="s">
@@ -7083,11 +7101,11 @@
       <c r="N225" s="17"/>
       <c r="O225" s="26"/>
       <c r="P225" s="10"/>
-      <c r="Q225" s="70"/>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q225" s="61"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="55"/>
-      <c r="B226" s="67"/>
+      <c r="B226" s="57"/>
       <c r="C226" s="59"/>
       <c r="D226" s="59"/>
       <c r="E226" s="44" t="s">
@@ -7106,11 +7124,11 @@
       <c r="N226" s="17"/>
       <c r="O226" s="26"/>
       <c r="P226" s="10"/>
-      <c r="Q226" s="70"/>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q226" s="61"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="55"/>
-      <c r="B227" s="67"/>
+      <c r="B227" s="57"/>
       <c r="C227" s="59"/>
       <c r="D227" s="59"/>
       <c r="E227" s="44" t="s">
@@ -7129,11 +7147,11 @@
       <c r="N227" s="17"/>
       <c r="O227" s="26"/>
       <c r="P227" s="10"/>
-      <c r="Q227" s="70"/>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q227" s="61"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="55"/>
-      <c r="B228" s="67"/>
+      <c r="B228" s="57"/>
       <c r="C228" s="59"/>
       <c r="D228" s="59"/>
       <c r="E228" s="44" t="s">
@@ -7152,11 +7170,11 @@
       <c r="N228" s="17"/>
       <c r="O228" s="26"/>
       <c r="P228" s="10"/>
-      <c r="Q228" s="70"/>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q228" s="61"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="55"/>
-      <c r="B229" s="67"/>
+      <c r="B229" s="57"/>
       <c r="C229" s="59"/>
       <c r="D229" s="59"/>
       <c r="E229" s="44" t="s">
@@ -7175,11 +7193,11 @@
       <c r="N229" s="17"/>
       <c r="O229" s="26"/>
       <c r="P229" s="10"/>
-      <c r="Q229" s="70"/>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q229" s="61"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="55"/>
-      <c r="B230" s="67"/>
+      <c r="B230" s="57"/>
       <c r="C230" s="59"/>
       <c r="D230" s="59"/>
       <c r="E230" s="44" t="s">
@@ -7198,11 +7216,11 @@
       <c r="N230" s="17"/>
       <c r="O230" s="26"/>
       <c r="P230" s="10"/>
-      <c r="Q230" s="70"/>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q230" s="61"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="55"/>
-      <c r="B231" s="67"/>
+      <c r="B231" s="57"/>
       <c r="C231" s="59"/>
       <c r="D231" s="59"/>
       <c r="E231" s="44" t="s">
@@ -7221,11 +7239,11 @@
       <c r="N231" s="17"/>
       <c r="O231" s="26"/>
       <c r="P231" s="10"/>
-      <c r="Q231" s="70"/>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q231" s="61"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="55"/>
-      <c r="B232" s="67"/>
+      <c r="B232" s="57"/>
       <c r="C232" s="59"/>
       <c r="D232" s="59"/>
       <c r="E232" s="44" t="s">
@@ -7244,13 +7262,13 @@
       <c r="N232" s="17"/>
       <c r="O232" s="26"/>
       <c r="P232" s="10"/>
-      <c r="Q232" s="70"/>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q232" s="61"/>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B233" s="56" t="s">
+      <c r="B233" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C233" s="58" t="s">
@@ -7277,9 +7295,9 @@
       <c r="P233" s="28"/>
       <c r="Q233" s="18"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="55"/>
-      <c r="B234" s="57"/>
+      <c r="B234" s="67"/>
       <c r="C234" s="59"/>
       <c r="D234" s="59"/>
       <c r="E234" s="46" t="s">
@@ -7300,9 +7318,9 @@
       <c r="P234" s="19"/>
       <c r="Q234" s="18"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="55"/>
-      <c r="B235" s="57"/>
+      <c r="B235" s="67"/>
       <c r="C235" s="59"/>
       <c r="D235" s="59"/>
       <c r="E235" s="46" t="s">
@@ -7323,9 +7341,9 @@
       <c r="P235" s="19"/>
       <c r="Q235" s="18"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="55"/>
-      <c r="B236" s="57"/>
+      <c r="B236" s="67"/>
       <c r="C236" s="59"/>
       <c r="D236" s="59"/>
       <c r="E236" s="46" t="s">
@@ -7346,9 +7364,9 @@
       <c r="P236" s="19"/>
       <c r="Q236" s="18"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="55"/>
-      <c r="B237" s="57"/>
+      <c r="B237" s="67"/>
       <c r="C237" s="59"/>
       <c r="D237" s="59"/>
       <c r="E237" s="46" t="s">
@@ -7369,9 +7387,9 @@
       <c r="P237" s="19"/>
       <c r="Q237" s="18"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="55"/>
-      <c r="B238" s="57"/>
+      <c r="B238" s="67"/>
       <c r="C238" s="59"/>
       <c r="D238" s="59"/>
       <c r="E238" s="46" t="s">
@@ -7392,9 +7410,9 @@
       <c r="P238" s="28"/>
       <c r="Q238" s="18"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="55"/>
-      <c r="B239" s="57"/>
+      <c r="B239" s="67"/>
       <c r="C239" s="59"/>
       <c r="D239" s="59"/>
       <c r="E239" s="46" t="s">
@@ -7415,9 +7433,9 @@
       <c r="P239" s="10"/>
       <c r="Q239" s="18"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="55"/>
-      <c r="B240" s="57"/>
+      <c r="B240" s="67"/>
       <c r="C240" s="59"/>
       <c r="D240" s="59"/>
       <c r="E240" s="46" t="s">
@@ -7438,9 +7456,9 @@
       <c r="P240" s="10"/>
       <c r="Q240" s="18"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="55"/>
-      <c r="B241" s="57"/>
+      <c r="B241" s="67"/>
       <c r="C241" s="59"/>
       <c r="D241" s="59"/>
       <c r="E241" s="47" t="s">
@@ -7461,9 +7479,9 @@
       <c r="P241" s="10"/>
       <c r="Q241" s="18"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="55"/>
-      <c r="B242" s="57"/>
+      <c r="B242" s="67"/>
       <c r="C242" s="59"/>
       <c r="D242" s="59"/>
       <c r="E242" s="17" t="s">
@@ -7484,9 +7502,9 @@
       <c r="P242" s="10"/>
       <c r="Q242" s="18"/>
     </row>
-    <row r="243" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:17" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A243" s="55"/>
-      <c r="B243" s="57"/>
+      <c r="B243" s="67"/>
       <c r="C243" s="59"/>
       <c r="D243" s="59"/>
       <c r="E243" s="44" t="s">
@@ -7507,9 +7525,9 @@
       <c r="P243" s="10"/>
       <c r="Q243" s="18"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="55"/>
-      <c r="B244" s="57"/>
+      <c r="B244" s="67"/>
       <c r="C244" s="59"/>
       <c r="D244" s="59"/>
       <c r="E244" s="26" t="s">
@@ -7530,9 +7548,9 @@
       <c r="P244" s="10"/>
       <c r="Q244" s="18"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="55"/>
-      <c r="B245" s="57"/>
+      <c r="B245" s="67"/>
       <c r="C245" s="59"/>
       <c r="D245" s="59"/>
       <c r="E245" s="26" t="s">
@@ -7553,9 +7571,9 @@
       <c r="P245" s="10"/>
       <c r="Q245" s="18"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="55"/>
-      <c r="B246" s="57"/>
+      <c r="B246" s="67"/>
       <c r="C246" s="59"/>
       <c r="D246" s="59"/>
       <c r="E246" s="26" t="s">
@@ -7576,9 +7594,9 @@
       <c r="P246" s="10"/>
       <c r="Q246" s="18"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="55"/>
-      <c r="B247" s="57"/>
+      <c r="B247" s="67"/>
       <c r="C247" s="59"/>
       <c r="D247" s="59"/>
       <c r="E247" s="17" t="s">
@@ -7599,9 +7617,9 @@
       <c r="P247" s="10"/>
       <c r="Q247" s="18"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="55"/>
-      <c r="B248" s="57"/>
+      <c r="B248" s="67"/>
       <c r="C248" s="59"/>
       <c r="D248" s="59"/>
       <c r="E248" s="17" t="s">
@@ -7622,9 +7640,9 @@
       <c r="P248" s="28"/>
       <c r="Q248" s="18"/>
     </row>
-    <row r="249" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A249" s="55"/>
-      <c r="B249" s="57"/>
+      <c r="B249" s="67"/>
       <c r="C249" s="59"/>
       <c r="D249" s="59"/>
       <c r="E249" s="16" t="s">
@@ -7645,9 +7663,9 @@
       <c r="P249" s="28"/>
       <c r="Q249" s="18"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="55"/>
-      <c r="B250" s="57"/>
+      <c r="B250" s="67"/>
       <c r="C250" s="59"/>
       <c r="D250" s="59"/>
       <c r="E250" s="11" t="s">
@@ -7668,9 +7686,9 @@
       <c r="P250" s="28"/>
       <c r="Q250" s="18"/>
     </row>
-    <row r="251" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A251" s="55"/>
-      <c r="B251" s="57"/>
+      <c r="B251" s="67"/>
       <c r="C251" s="59"/>
       <c r="D251" s="59"/>
       <c r="E251" s="16" t="s">
@@ -7691,9 +7709,9 @@
       <c r="P251" s="28"/>
       <c r="Q251" s="18"/>
     </row>
-    <row r="252" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A252" s="55"/>
-      <c r="B252" s="57"/>
+      <c r="B252" s="67"/>
       <c r="C252" s="59"/>
       <c r="D252" s="59"/>
       <c r="E252" s="49" t="s">
@@ -7714,9 +7732,9 @@
       <c r="P252" s="28"/>
       <c r="Q252" s="18"/>
     </row>
-    <row r="253" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A253" s="55"/>
-      <c r="B253" s="57"/>
+      <c r="B253" s="67"/>
       <c r="C253" s="59"/>
       <c r="D253" s="59"/>
       <c r="E253" s="49" t="s">
@@ -7737,9 +7755,9 @@
       <c r="P253" s="28"/>
       <c r="Q253" s="18"/>
     </row>
-    <row r="254" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A254" s="55"/>
-      <c r="B254" s="57"/>
+      <c r="B254" s="67"/>
       <c r="C254" s="59"/>
       <c r="D254" s="59"/>
       <c r="E254" s="49" t="s">
@@ -7760,9 +7778,9 @@
       <c r="P254" s="28"/>
       <c r="Q254" s="18"/>
     </row>
-    <row r="255" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A255" s="55"/>
-      <c r="B255" s="57"/>
+      <c r="B255" s="67"/>
       <c r="C255" s="59"/>
       <c r="D255" s="59"/>
       <c r="E255" s="49" t="s">
@@ -7783,9 +7801,9 @@
       <c r="P255" s="28"/>
       <c r="Q255" s="18"/>
     </row>
-    <row r="256" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A256" s="55"/>
-      <c r="B256" s="57"/>
+      <c r="B256" s="67"/>
       <c r="C256" s="59"/>
       <c r="D256" s="59"/>
       <c r="E256" s="49" t="s">
@@ -7806,9 +7824,9 @@
       <c r="P256" s="28"/>
       <c r="Q256" s="18"/>
     </row>
-    <row r="257" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A257" s="55"/>
-      <c r="B257" s="57"/>
+      <c r="B257" s="67"/>
       <c r="C257" s="59"/>
       <c r="D257" s="59"/>
       <c r="E257" s="49" t="s">
@@ -7829,9 +7847,9 @@
       <c r="P257" s="28"/>
       <c r="Q257" s="18"/>
     </row>
-    <row r="258" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A258" s="55"/>
-      <c r="B258" s="57"/>
+      <c r="B258" s="67"/>
       <c r="C258" s="59"/>
       <c r="D258" s="59"/>
       <c r="E258" s="49" t="s">
@@ -7852,9 +7870,9 @@
       <c r="P258" s="28"/>
       <c r="Q258" s="18"/>
     </row>
-    <row r="259" spans="1:17" ht="12" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:17" ht="12" x14ac:dyDescent="0.25">
       <c r="A259" s="55"/>
-      <c r="B259" s="57"/>
+      <c r="B259" s="67"/>
       <c r="C259" s="59"/>
       <c r="D259" s="59"/>
       <c r="E259" s="49" t="s">
@@ -7875,11 +7893,11 @@
       <c r="P259" s="28"/>
       <c r="Q259" s="18"/>
     </row>
-    <row r="260" spans="1:17" ht="24" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A260" s="55"/>
-      <c r="B260" s="57"/>
-      <c r="C260" s="60"/>
-      <c r="D260" s="60"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="64"/>
+      <c r="D260" s="64"/>
       <c r="E260" s="49" t="s">
         <v>72</v>
       </c>
@@ -7898,7 +7916,7 @@
       <c r="P260" s="28"/>
       <c r="Q260" s="18"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="35"/>
       <c r="C261" s="11"/>
@@ -7917,7 +7935,7 @@
       <c r="P261" s="28"/>
       <c r="Q261" s="18"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="35"/>
       <c r="C262" s="11"/>
@@ -7938,48 +7956,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q262"/>
-  <mergeCells count="57">
-    <mergeCell ref="A220:A232"/>
-    <mergeCell ref="B220:B232"/>
-    <mergeCell ref="C220:C232"/>
-    <mergeCell ref="D220:D232"/>
-    <mergeCell ref="Q220:Q232"/>
-    <mergeCell ref="A209:A219"/>
-    <mergeCell ref="B209:B219"/>
-    <mergeCell ref="C209:C219"/>
-    <mergeCell ref="D209:D219"/>
-    <mergeCell ref="Q209:Q219"/>
-    <mergeCell ref="A199:A208"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="C199:C208"/>
-    <mergeCell ref="D199:D208"/>
-    <mergeCell ref="Q199:Q208"/>
-    <mergeCell ref="A186:A198"/>
-    <mergeCell ref="B186:B198"/>
-    <mergeCell ref="C186:C198"/>
-    <mergeCell ref="D186:D198"/>
-    <mergeCell ref="Q186:Q198"/>
-    <mergeCell ref="A175:A185"/>
-    <mergeCell ref="B175:B185"/>
-    <mergeCell ref="C175:C185"/>
-    <mergeCell ref="D175:D185"/>
-    <mergeCell ref="Q175:Q185"/>
-    <mergeCell ref="A134:A159"/>
-    <mergeCell ref="B134:B159"/>
-    <mergeCell ref="C134:C159"/>
-    <mergeCell ref="D134:D159"/>
-    <mergeCell ref="A160:A174"/>
-    <mergeCell ref="B160:B174"/>
-    <mergeCell ref="C160:C174"/>
-    <mergeCell ref="D160:D174"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="D44:D72"/>
-    <mergeCell ref="C44:C72"/>
-    <mergeCell ref="B44:B72"/>
-    <mergeCell ref="A44:A72"/>
+  <mergeCells count="59">
     <mergeCell ref="A233:A260"/>
     <mergeCell ref="B233:B260"/>
     <mergeCell ref="C233:C260"/>
@@ -7996,6 +7973,49 @@
     <mergeCell ref="B104:B133"/>
     <mergeCell ref="C104:C133"/>
     <mergeCell ref="D104:D133"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="D44:D72"/>
+    <mergeCell ref="C44:C72"/>
+    <mergeCell ref="B44:B72"/>
+    <mergeCell ref="A44:A72"/>
+    <mergeCell ref="A134:A159"/>
+    <mergeCell ref="B134:B159"/>
+    <mergeCell ref="C134:C159"/>
+    <mergeCell ref="D134:D159"/>
+    <mergeCell ref="A160:A174"/>
+    <mergeCell ref="B160:B174"/>
+    <mergeCell ref="C160:C174"/>
+    <mergeCell ref="D160:D174"/>
+    <mergeCell ref="A175:A185"/>
+    <mergeCell ref="B175:B185"/>
+    <mergeCell ref="C175:C185"/>
+    <mergeCell ref="D175:D185"/>
+    <mergeCell ref="Q175:Q185"/>
+    <mergeCell ref="O175:O185"/>
+    <mergeCell ref="A186:A198"/>
+    <mergeCell ref="B186:B198"/>
+    <mergeCell ref="C186:C198"/>
+    <mergeCell ref="D186:D198"/>
+    <mergeCell ref="Q186:Q198"/>
+    <mergeCell ref="O186:O199"/>
+    <mergeCell ref="A199:A208"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="C199:C208"/>
+    <mergeCell ref="D199:D208"/>
+    <mergeCell ref="Q199:Q208"/>
+    <mergeCell ref="A209:A219"/>
+    <mergeCell ref="B209:B219"/>
+    <mergeCell ref="C209:C219"/>
+    <mergeCell ref="D209:D219"/>
+    <mergeCell ref="Q209:Q219"/>
+    <mergeCell ref="A220:A232"/>
+    <mergeCell ref="B220:B232"/>
+    <mergeCell ref="C220:C232"/>
+    <mergeCell ref="D220:D232"/>
+    <mergeCell ref="Q220:Q232"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L1">
@@ -8211,22 +8231,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="18" customWidth="1"/>
     <col min="3" max="3" width="9" style="33" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="33" customWidth="1"/>
     <col min="5" max="5" width="9" style="33" customWidth="1"/>
     <col min="6" max="10" width="9" style="33"/>
-    <col min="11" max="11" width="23.875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="29.875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="33" customWidth="1"/>
-    <col min="14" max="14" width="20.125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" style="33" customWidth="1"/>
     <col min="15" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8270,472 +8290,472 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="19"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="19"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="19"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="19"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="19"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="19"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="19"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="19"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="19"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="19"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="19"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="19"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="19"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="19"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="19"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="19"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="19"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="19"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="19"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="19"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="19"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="19"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="19"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="19"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="19"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="19"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="19"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="19"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="19"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="19"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="19"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="19"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="19"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="19"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="19"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="19"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="19"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="19"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="19"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="19"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="19"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="19"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="19"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="19"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="19"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="19"/>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="19"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="19"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="19"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="19"/>
       <c r="G82" s="18"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="19"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="19"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="19"/>
       <c r="G85" s="17"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="19"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="19"/>
       <c r="G87" s="17"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="19"/>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="19"/>
       <c r="G89" s="17"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="19"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="19"/>
       <c r="G91" s="17"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="19"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="19"/>
       <c r="G93" s="17"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="19"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="19"/>
       <c r="G95" s="17"/>
